--- a/Date_Salariale.xlsx
+++ b/Date_Salariale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Proiect_George\Statistici_Judete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B55765E-5F9F-4068-9AEF-AE57618211CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90032D67-AD7C-4711-8C13-50222F22A974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27780" windowHeight="16440" xr2:uid="{4694684A-12BB-4242-8039-74BE803944AE}"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="12045" windowHeight="7560" xr2:uid="{4694684A-12BB-4242-8039-74BE803944AE}"/>
   </bookViews>
   <sheets>
     <sheet name="DateStatistice" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Camine!$D$168:$E$888</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3346,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1174123-7583-4D8C-BBC6-A511869F3F72}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Date_Salariale.xlsx
+++ b/Date_Salariale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Proiect_George\Statistici_Judete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90032D67-AD7C-4711-8C13-50222F22A974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7424E3-75F7-49C1-A2C6-AC53F7980010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="0" windowWidth="12045" windowHeight="7560" xr2:uid="{4694684A-12BB-4242-8039-74BE803944AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{4694684A-12BB-4242-8039-74BE803944AE}"/>
   </bookViews>
   <sheets>
     <sheet name="DateStatistice" sheetId="3" r:id="rId1"/>
@@ -2839,12 +2839,6 @@
     <t>Caminul Pentru Persoane Varstnice Focsani</t>
   </si>
   <si>
-    <t>Schimbare 19/20</t>
-  </si>
-  <si>
-    <t>Schimbare 18/19</t>
-  </si>
-  <si>
     <t>CUI</t>
   </si>
   <si>
@@ -2879,6 +2873,12 @@
   </si>
   <si>
     <t>Numar_Camine_Consolidat</t>
+  </si>
+  <si>
+    <t>Schimbare_2019_2020</t>
+  </si>
+  <si>
+    <t>Schimbare_2018_2019</t>
   </si>
 </sst>
 </file>
@@ -3346,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1174123-7583-4D8C-BBC6-A511869F3F72}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3380,27 +3380,27 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>944</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
@@ -5011,13 +5011,13 @@
         <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>165564</v>
       </c>
       <c r="F2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>2000</v>
       </c>
       <c r="F4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
